--- a/doc/知能ロボコンフロー.xlsx
+++ b/doc/知能ロボコンフロー.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="9675" windowHeight="5130" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="9675" windowHeight="5130" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="plan" sheetId="1" r:id="rId1"/>
@@ -2390,14 +2390,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2406,8 +2406,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3771900" y="6877050"/>
-          <a:ext cx="2009776" cy="914400"/>
+          <a:off x="3795713" y="8424863"/>
+          <a:ext cx="2024063" cy="890588"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -2462,14 +2462,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2478,8 +2478,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4095750" y="8734425"/>
-          <a:ext cx="1381125" cy="628650"/>
+          <a:off x="4119563" y="10234613"/>
+          <a:ext cx="1390650" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2561,14 +2561,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2577,8 +2577,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6162675" y="8734425"/>
-          <a:ext cx="1381125" cy="628650"/>
+          <a:off x="6200775" y="10234613"/>
+          <a:ext cx="1395413" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2660,14 +2660,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2676,8 +2676,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8220075" y="8734425"/>
-          <a:ext cx="1381125" cy="628650"/>
+          <a:off x="8272463" y="10234613"/>
+          <a:ext cx="1395412" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2759,14 +2759,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>314326</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2775,8 +2775,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1722664" y="5856514"/>
-          <a:ext cx="1993448" cy="941615"/>
+          <a:off x="1743075" y="7258051"/>
+          <a:ext cx="2024064" cy="890587"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -2844,14 +2844,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2860,8 +2860,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2057400" y="8734425"/>
-          <a:ext cx="1381125" cy="533400"/>
+          <a:off x="2071688" y="10234613"/>
+          <a:ext cx="1390650" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2932,14 +2932,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>32657</xdr:rowOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>104095</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>42182</xdr:rowOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>113620</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2948,8 +2948,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2145846" y="13653407"/>
-          <a:ext cx="1175658" cy="540204"/>
+          <a:off x="2176463" y="14605908"/>
+          <a:ext cx="1185862" cy="509587"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3001,14 +3001,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>326572</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>25854</xdr:rowOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>97292</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>326572</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>50346</xdr:rowOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>121784</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3019,8 +3019,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1687286" y="10816318"/>
-          <a:ext cx="2041072" cy="555171"/>
+          <a:off x="1707697" y="11932105"/>
+          <a:ext cx="2071688" cy="524554"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3241,18 +3241,20 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>12246</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>122464</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>29255</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="22" name="直線矢印コネクタ 21"/>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="58" idx="0"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="2726191" y="5104039"/>
-          <a:ext cx="7484" cy="678996"/>
+          <a:ext cx="7484" cy="1293359"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3282,14 +3284,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>314326</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>136072</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>40823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>659267</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3301,8 +3303,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3716112" y="6327322"/>
-          <a:ext cx="1025298" cy="767442"/>
+          <a:off x="3767139" y="7708448"/>
+          <a:ext cx="1035503" cy="716415"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -3332,14 +3334,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>659268</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>671514</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3351,8 +3353,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4262439" y="8515350"/>
-          <a:ext cx="970189" cy="12246"/>
+          <a:off x="4349185" y="9768908"/>
+          <a:ext cx="919162" cy="12246"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -3382,14 +3384,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>653143</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>125867</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>678316</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3398,8 +3400,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4735286" y="8545286"/>
-          <a:ext cx="4107316" cy="461282"/>
+          <a:off x="4796518" y="9793742"/>
+          <a:ext cx="4168548" cy="440871"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -3429,14 +3431,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>678317</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>40822</xdr:rowOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>112260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3447,8 +3449,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6801531" y="8531679"/>
-          <a:ext cx="2040" cy="474889"/>
+          <a:off x="6893380" y="9780135"/>
+          <a:ext cx="12245" cy="454478"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3478,14 +3480,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>678317</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3497,8 +3499,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2719388" y="6798129"/>
-          <a:ext cx="6803" cy="2208439"/>
+          <a:off x="2750005" y="8148638"/>
+          <a:ext cx="17007" cy="2085975"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3528,26 +3530,24 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>666751</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>8165</xdr:rowOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>79603</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>678317</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>25854</xdr:rowOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>97292</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="34" name="直線矢印コネクタ 33"/>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="16" idx="0"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2707822" y="9560379"/>
-          <a:ext cx="11566" cy="1255939"/>
+          <a:off x="2738439" y="10747603"/>
+          <a:ext cx="11566" cy="1184502"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3577,14 +3577,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>69396</xdr:rowOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>140834</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>12246</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>40821</xdr:rowOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>112259</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3593,8 +3593,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2726191" y="12982575"/>
-          <a:ext cx="7484" cy="678996"/>
+          <a:off x="2767012" y="13975897"/>
+          <a:ext cx="7484" cy="638175"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3624,14 +3624,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>666751</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>678317</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>149678</xdr:rowOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3642,8 +3642,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="5398975" y="6965836"/>
-          <a:ext cx="752475" cy="6134781"/>
+          <a:off x="5495926" y="8086726"/>
+          <a:ext cx="711653" cy="6226628"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -3673,14 +3673,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>671513</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>136071</xdr:rowOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3691,8 +3691,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4748893" y="9656989"/>
-          <a:ext cx="4763" cy="738868"/>
+          <a:off x="4810125" y="10844213"/>
+          <a:ext cx="4763" cy="698046"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3719,14 +3719,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>4764</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>136071</xdr:rowOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3735,8 +3735,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6803572" y="9656989"/>
-          <a:ext cx="4763" cy="738868"/>
+          <a:off x="6905626" y="10844213"/>
+          <a:ext cx="4763" cy="698046"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3763,14 +3763,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>5443</xdr:rowOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>76881</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>314326</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>62593</xdr:rowOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>134031</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3779,8 +3779,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1722664" y="12034157"/>
-          <a:ext cx="1993448" cy="941615"/>
+          <a:off x="1743075" y="13078506"/>
+          <a:ext cx="2024064" cy="890588"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -3833,85 +3833,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>5443</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>14969</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="角丸四角形 48"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2145846" y="19994336"/>
-          <a:ext cx="1175658" cy="540204"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>終了</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>42182</xdr:rowOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>113620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>12246</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>85045</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3920,8 +3851,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2726191" y="11363325"/>
-          <a:ext cx="7484" cy="678996"/>
+          <a:off x="2767012" y="12448495"/>
+          <a:ext cx="7484" cy="638175"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3950,15 +3881,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>13607</xdr:colOff>
+      <xdr:colOff>23810</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>314326</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>122465</xdr:rowOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>22112</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3969,13 +3900,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2735036" y="5483679"/>
-          <a:ext cx="981076" cy="7021286"/>
+          <a:off x="2786060" y="5238750"/>
+          <a:ext cx="981079" cy="8285050"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -657142"/>
-            <a:gd name="adj2" fmla="val 100058"/>
+            <a:gd name="adj1" fmla="val -770871"/>
+            <a:gd name="adj2" fmla="val 99956"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -4003,8 +3934,8 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>530678</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>149679</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>54430</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="460895" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -4014,7 +3945,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3932464" y="5987143"/>
+          <a:off x="3983491" y="7388680"/>
           <a:ext cx="460895" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4064,8 +3995,8 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>530678</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>68036</xdr:rowOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>139474</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="460895" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -4075,7 +4006,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3932464" y="12096750"/>
+          <a:off x="3983491" y="13141099"/>
           <a:ext cx="460895" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4125,8 +4056,8 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>108857</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>136072</xdr:rowOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>40823</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="430502" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -4136,7 +4067,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2149928" y="7034893"/>
+          <a:off x="2180545" y="8375198"/>
           <a:ext cx="430502" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4186,8 +4117,8 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>108857</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>149679</xdr:rowOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>54430</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="430502" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -4197,7 +4128,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2149928" y="13062858"/>
+          <a:off x="2180545" y="14056180"/>
           <a:ext cx="430502" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4247,8 +4178,8 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>108857</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>54430</xdr:rowOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>6805</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="748923" cy="275717"/>
     <xdr:sp macro="" textlink="">
@@ -4258,7 +4189,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4871357" y="8722180"/>
+          <a:off x="4942795" y="9841368"/>
           <a:ext cx="748923" cy="275717"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4299,8 +4230,8 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>163286</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>54431</xdr:rowOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>6806</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="609590" cy="275717"/>
     <xdr:sp macro="" textlink="">
@@ -4310,7 +4241,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6966857" y="8722181"/>
+          <a:off x="7068911" y="9841369"/>
           <a:ext cx="609590" cy="275717"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4351,8 +4282,8 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>272142</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>68038</xdr:rowOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>20413</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="609590" cy="275717"/>
     <xdr:sp macro="" textlink="">
@@ -4362,7 +4293,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9116785" y="8735788"/>
+          <a:off x="9249455" y="9854976"/>
           <a:ext cx="609590" cy="275717"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4399,6 +4330,3923 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="角丸四角形 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14297025" y="726621"/>
+          <a:ext cx="1175657" cy="540204"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>turn(deg)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>開始</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>29255</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="正方形/長方形 57"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2041071" y="6397398"/>
+          <a:ext cx="1370240" cy="544966"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>総経距離測定</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>getLengrh()</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>678317</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="直線矢印コネクタ 59"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="58" idx="2"/>
+          <a:endCxn id="13" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2719388" y="6942364"/>
+          <a:ext cx="6803" cy="754517"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>612775</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="正方形/長方形 69">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14573250" y="1746250"/>
+          <a:ext cx="1406525" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>車輪のリセット</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>WheelReset()</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>612775</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="正方形/長方形 70"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14573250" y="2867025"/>
+          <a:ext cx="1406525" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>終了フラグリセット</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>EndFlg=false</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>612775</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="正方形/長方形 71"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14573250" y="3997325"/>
+          <a:ext cx="1406525" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>車輪回転方向</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>m1R=1.m2R=0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>m1L=0,m2L=1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="ひし形 72"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16313150" y="8027988"/>
+          <a:ext cx="2047876" cy="850900"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>左右車輪の進行バランス</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="正方形/長方形 73"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16637000" y="9750425"/>
+          <a:ext cx="1406525" cy="577850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>速度</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>pwmR=speed</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>pwmL=speed</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="正方形/長方形 74"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18742025" y="9750425"/>
+          <a:ext cx="1419225" cy="577850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>速度</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>pwmR=WheelGain</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>pwmL=speed</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="正方形/長方形 75"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20837525" y="9750425"/>
+          <a:ext cx="1419225" cy="577850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>速度</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>pwmR=speed</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>pwmL=wheelGain</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="ひし形 76"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14077950" y="7258051"/>
+          <a:ext cx="2024064" cy="890587"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>旋回角度</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;deg</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>612775</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="正方形/長方形 77"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14573250" y="9750425"/>
+          <a:ext cx="1406525" cy="490538"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>終了フラグ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>EndFlg=true</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>104095</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>113620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="角丸四角形 78"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14678025" y="13915345"/>
+          <a:ext cx="1193800" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>終了</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>231322</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>97292</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>231322</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>121784</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="正方形/長方形 79">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14201322" y="11368542"/>
+          <a:ext cx="2095500" cy="500742"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>自己位置計測</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>data.SetStatus(dLength,dTheta)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>608012</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>615496</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="直線矢印コネクタ 80"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="70" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="15276512" y="1139825"/>
+          <a:ext cx="7484" cy="606425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>608012</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>14967</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>615496</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>4534</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="直線矢印コネクタ 81"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="15276512" y="2237467"/>
+          <a:ext cx="7484" cy="624567"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>608012</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>42182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>615496</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="直線矢印コネクタ 82"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="15276512" y="3375932"/>
+          <a:ext cx="7484" cy="606425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>608012</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>151039</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>615496</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>29255</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="直線矢印コネクタ 83"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="98" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="15276512" y="4596039"/>
+          <a:ext cx="7484" cy="1148216"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>40823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>564017</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="85" name="カギ線コネクタ 84"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="77" idx="3"/>
+          <a:endCxn id="73" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16284576" y="7343323"/>
+          <a:ext cx="1043441" cy="684665"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>564018</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>576264</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="カギ線コネクタ 85"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="73" idx="2"/>
+          <a:endCxn id="74" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="16898372" y="9308533"/>
+          <a:ext cx="871537" cy="12246"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>557893</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>125867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>583066</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="カギ線コネクタ 86"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17321893" y="9333367"/>
+          <a:ext cx="4216173" cy="417058"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>583067</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>112260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="88" name="直線矢印コネクタ 87"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="75" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="19442567" y="9319760"/>
+          <a:ext cx="20183" cy="430665"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>583067</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>608012</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="89" name="直線矢印コネクタ 88"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="77" idx="2"/>
+          <a:endCxn id="78" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15251567" y="7767638"/>
+          <a:ext cx="24945" cy="1982787"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>79603</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>583067</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>97292</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="90" name="直線矢印コネクタ 89"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="15240001" y="10239603"/>
+          <a:ext cx="11566" cy="1128939"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>608012</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>140834</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>615496</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>112259</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="91" name="直線矢印コネクタ 90"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="15276512" y="13317084"/>
+          <a:ext cx="7484" cy="606425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>583067</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="92" name="カギ線コネクタ 91"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="76" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="18049082" y="7519194"/>
+          <a:ext cx="679903" cy="6298066"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>576263</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="93" name="直線コネクタ 92"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="74" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="17335500" y="10328275"/>
+          <a:ext cx="4763" cy="666296"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>603251</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>608014</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="94" name="直線コネクタ 93"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="19462751" y="10328275"/>
+          <a:ext cx="4763" cy="666296"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>76881</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>134031</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="ひし形 94"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14236700" y="12459381"/>
+          <a:ext cx="2047876" cy="850900"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>終了フラグ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>608012</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>113620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>615496</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>85045</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="96" name="直線矢印コネクタ 95"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="15276512" y="11861120"/>
+          <a:ext cx="7484" cy="606425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>627060</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>22112</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="97" name="カギ線コネクタ 96"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="95" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="15295560" y="4992687"/>
+          <a:ext cx="989016" cy="7888175"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -770871"/>
+            <a:gd name="adj2" fmla="val 99956"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>29255</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>612775</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="正方形/長方形 97"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14573250" y="5744255"/>
+          <a:ext cx="1406525" cy="490538"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>総経距離測定</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>getLengrh()</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>583067</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>608012</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="99" name="直線矢印コネクタ 98"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="98" idx="2"/>
+          <a:endCxn id="77" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="15251567" y="6234793"/>
+          <a:ext cx="24945" cy="681945"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>416378</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>54430</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="460895" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="テキスト ボックス 99"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16189778" y="7598230"/>
+          <a:ext cx="460895" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>false</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>416378</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>139474</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="460895" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="テキスト ボックス 100"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16189778" y="13512574"/>
+          <a:ext cx="460895" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>false</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>680357</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>40823</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="430502" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="102" name="テキスト ボックス 101"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14396357" y="8613323"/>
+          <a:ext cx="430502" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>true</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>680357</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>54430</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="430502" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="テキスト ボックス 102"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14396357" y="14456230"/>
+          <a:ext cx="430502" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>true</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>680357</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>6805</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="748923" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="テキスト ボックス 103"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17139557" y="10122355"/>
+          <a:ext cx="748923" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>左右同等</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>48986</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>6806</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="609590" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="テキスト ボックス 104"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19251386" y="10122356"/>
+          <a:ext cx="609590" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>右先行</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>157842</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>20413</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="609590" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="テキスト ボックス 105"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21417642" y="10135963"/>
+          <a:ext cx="609590" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>左先行</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>205468</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="角丸四角形 106"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24203025" y="726621"/>
+          <a:ext cx="1175657" cy="540204"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>WheelReset()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>開始</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>303894</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>313419</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="120" name="正方形/長方形 119"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24116394" y="1945821"/>
+          <a:ext cx="1370239" cy="680358"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>車輪の停止</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>pwmR=0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>pwmL=0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>308657</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>308657</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>4534</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="123" name="直線矢印コネクタ 122"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="120" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24801514" y="2626179"/>
+          <a:ext cx="0" cy="562426"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>303894</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>13608</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>313419</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>163287</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="128" name="正方形/長方形 127"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24116394" y="3197679"/>
+          <a:ext cx="1370239" cy="680358"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>車輪の停止</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>pwmR=0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>pwmL=0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>308657</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>13608</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>308657</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>45356</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="129" name="直線矢印コネクタ 128"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24801514" y="3905251"/>
+          <a:ext cx="0" cy="562426"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>308657</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>308657</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="130" name="直線矢印コネクタ 129"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="120" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24801514" y="1238250"/>
+          <a:ext cx="0" cy="707571"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>417739</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76881</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>232682</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>86405</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="132" name="角丸四角形 131"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24230239" y="4499202"/>
+          <a:ext cx="1175657" cy="540203"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>終了</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>131764</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>131764</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="133" name="直線矢印コネクタ 132"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38231764" y="0"/>
+          <a:ext cx="0" cy="707571"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>91168</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>586468</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="134" name="角丸四角形 133"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27985811" y="726621"/>
+          <a:ext cx="1175657" cy="540204"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>getLength()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>開始</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>625928</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="135" name="正方形/長方形 134"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27840214" y="1945821"/>
+          <a:ext cx="1469572" cy="680358"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>一つ前の状態を保存</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Length[1]=Length[0]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Theta[1]=Theta[0]</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>9300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>4534</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="136" name="直線矢印コネクタ 135"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="135" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28575000" y="2626179"/>
+          <a:ext cx="9300" cy="562426"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>625928</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>13608</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>163287</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="137" name="正方形/長方形 136"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27840214" y="3197679"/>
+          <a:ext cx="1469572" cy="680358"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>車輪の移動距離計算</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>省略</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>9300</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>13608</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>9300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>45356</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="138" name="直線矢印コネクタ 137"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28584300" y="3905251"/>
+          <a:ext cx="0" cy="562426"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>9302</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="139" name="直線矢印コネクタ 138"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="135" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="28575000" y="1238250"/>
+          <a:ext cx="9302" cy="707571"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>625928</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>54430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>27216</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="144" name="正方形/長方形 143"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27840214" y="4476751"/>
+          <a:ext cx="1469572" cy="680358"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>旋回、移動距離計算</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>省略</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>9300</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>72570</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="147" name="直線矢印コネクタ 146"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28575000" y="5170715"/>
+          <a:ext cx="9300" cy="562426"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>68037</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>312964</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>40823</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="148" name="正方形/長方形 147"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27595286" y="5728608"/>
+          <a:ext cx="1973035" cy="680358"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>差分計算</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dLength=Length[0]-Length[1]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dTheta=Theta[0]-Theta[1]</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>9300</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>86177</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="149" name="直線矢印コネクタ 148"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28575000" y="6422572"/>
+          <a:ext cx="9300" cy="562426"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>104096</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>113620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="150" name="角丸四角形 149"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27999417" y="7002917"/>
+          <a:ext cx="1175657" cy="540203"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>終了</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4711,7 +8559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
@@ -4738,9 +8586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="AI10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
@@ -4793,7 +8639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>

--- a/doc/知能ロボコンフロー.xlsx
+++ b/doc/知能ロボコンフロー.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="9675" windowHeight="5130" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="9675" windowHeight="5130" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="plan" sheetId="1" r:id="rId1"/>
@@ -2031,6 +2031,1868 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>358775</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="2166937"/>
+          <a:ext cx="1177925" cy="509588"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SearchBall()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>開始</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>358776</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3152776" y="9451974"/>
+          <a:ext cx="1609724" cy="596901"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>自己位置の保存</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>default_x=data.x</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>default_y=data.y</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>358776</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3152776" y="5689599"/>
+          <a:ext cx="1609724" cy="596901"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>真横から探す</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>run.turn(90)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>358776</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3152776" y="6950074"/>
+          <a:ext cx="1609724" cy="596901"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>少し旋回</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Search_theta-=5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>run.turn(-5)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="ひし形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2952750" y="8181976"/>
+          <a:ext cx="2057400" cy="701674"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PSD[1]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>が認識</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>358776</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3152776" y="10702924"/>
+          <a:ext cx="1609724" cy="596901"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ボールの回収</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>GetBall()</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>358776</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3152776" y="4391024"/>
+          <a:ext cx="1609724" cy="596901"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>少し前進</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>y+=50</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>control.GoPosition(x,y)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>358776</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3152776" y="12001499"/>
+          <a:ext cx="1609724" cy="596901"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ボールの発射</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>FireBall()</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>358776</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>128586</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3121026" y="3295649"/>
+          <a:ext cx="1593849" cy="633413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>探索角度のリセット</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Search_theta=180</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="ひし形 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2921000" y="13873163"/>
+          <a:ext cx="2033588" cy="938212"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Search_theta==0</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>84932</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>103982</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="ひし形 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2889250" y="17722057"/>
+          <a:ext cx="2009775" cy="892175"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>コースの端に到達</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>103982</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>286657</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>129835</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="角丸四角形 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3397250" y="19312732"/>
+          <a:ext cx="985157" cy="549728"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>終了</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>460375</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>465138</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>128586</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線矢印コネクタ 25"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="17" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3913188" y="2676525"/>
+          <a:ext cx="4763" cy="619124"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>460375</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>116680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>465138</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>69054</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線矢印コネクタ 27"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3913188" y="3950493"/>
+          <a:ext cx="4763" cy="619124"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>460375</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>465138</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直線矢印コネクタ 29"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3913188" y="5319713"/>
+          <a:ext cx="4763" cy="619124"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>460375</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>465138</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線矢印コネクタ 30"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3913188" y="6605588"/>
+          <a:ext cx="4763" cy="619124"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>460375</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>465138</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直線矢印コネクタ 31"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3913188" y="7962901"/>
+          <a:ext cx="4763" cy="619124"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>460375</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>465138</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直線矢印コネクタ 32"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3913188" y="9296401"/>
+          <a:ext cx="4763" cy="619124"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>460375</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>92869</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>465138</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>45243</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直線矢印コネクタ 33"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3913188" y="10594182"/>
+          <a:ext cx="4763" cy="619124"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>460375</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>465138</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直線矢印コネクタ 34"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3913188" y="11891963"/>
+          <a:ext cx="4763" cy="619124"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>460375</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>465138</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直線矢印コネクタ 35"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3913188" y="13177838"/>
+          <a:ext cx="4763" cy="619124"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>460375</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>140494</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>465138</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>92868</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="直線矢印コネクタ 36"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3913188" y="14808994"/>
+          <a:ext cx="4763" cy="619124"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>460375</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>465138</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>25399</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直線矢印コネクタ 37"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3873500" y="18583275"/>
+          <a:ext cx="4763" cy="650874"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>464343</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="カギ線コネクタ 39"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3917156" y="8953501"/>
+          <a:ext cx="1037432" cy="4595812"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -22035"/>
+            <a:gd name="adj2" fmla="val 100010"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>7144</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="カギ線コネクタ 52"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3929063" y="6881813"/>
+          <a:ext cx="1025525" cy="7460456"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -168576"/>
+            <a:gd name="adj2" fmla="val 100005"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>158749</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>107830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>449291</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>4599</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="カギ線コネクタ 74"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1">
+          <a:off x="2890447" y="3163019"/>
+          <a:ext cx="973467" cy="15532146"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -124634"/>
+            <a:gd name="adj2" fmla="val 100011"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="正方形/長方形 89"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2657476" y="15887699"/>
+          <a:ext cx="2505074" cy="647701"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>元の位置へ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>control.GoPosition(default_x,default_y)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>481013</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>84932</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="91" name="直線矢印コネクタ 90"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="90" idx="2"/>
+          <a:endCxn id="23" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3910013" y="16535400"/>
+          <a:ext cx="1587" cy="865982"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>4</xdr:row>
@@ -8247,6 +10109,929 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="角丸四角形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1285875" y="885825"/>
+          <a:ext cx="1514475" cy="540204"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SetStatus(length,deg)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>開始</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1352550" y="2057401"/>
+          <a:ext cx="1390650" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>引数から自己位置を計算</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>x=cos(theta)*length</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>y=sin(theta)*length</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1352550" y="3286126"/>
+          <a:ext cx="1390650" cy="419099"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>引数から自己姿勢を加算</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>theta+=deg</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="ひし形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1343025" y="4343400"/>
+          <a:ext cx="1419225" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>length!=0||deg!=0</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1352550" y="5829301"/>
+          <a:ext cx="1390650" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>自己位置を出力</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>OutData()</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>594633</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>44903</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="角丸四角形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1476375" y="7048500"/>
+          <a:ext cx="1175658" cy="540203"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>終了</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>671513</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2043113" y="1426029"/>
+          <a:ext cx="4762" cy="631372"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>671513</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>25854</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2043113" y="2597604"/>
+          <a:ext cx="4762" cy="631372"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>671513</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>102054</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2043113" y="3702504"/>
+          <a:ext cx="4762" cy="631372"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>671513</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>25854</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線矢印コネクタ 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2043113" y="5169354"/>
+          <a:ext cx="4762" cy="631372"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>671513</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>35379</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線矢印コネクタ 17"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2043113" y="6379029"/>
+          <a:ext cx="4762" cy="631372"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="カギ線コネクタ 19"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2057400" y="4733925"/>
+          <a:ext cx="704850" cy="1962150"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -67567"/>
+            <a:gd name="adj2" fmla="val 99757"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="363433" cy="217560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="テキスト ボックス 24"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1552575" y="5191125"/>
+          <a:ext cx="363433" cy="217560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ture</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="385490" cy="217560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="テキスト ボックス 25"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2933700" y="4448175"/>
+          <a:ext cx="385490" cy="217560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>false</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8573,12 +11358,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8586,7 +11374,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView topLeftCell="I46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
@@ -8639,12 +11429,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/doc/知能ロボコンフロー.xlsx
+++ b/doc/知能ロボコンフロー.xlsx
@@ -11358,7 +11358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>

--- a/doc/知能ロボコンフロー.xlsx
+++ b/doc/知能ロボコンフロー.xlsx
@@ -3886,6 +3886,1133 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>121443</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>608805</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="角丸四角形 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8408193" y="2166937"/>
+          <a:ext cx="1177925" cy="509588"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>GetBall()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>開始</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>584994</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>107156</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="正方形/長方形 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8181182" y="5967412"/>
+          <a:ext cx="1593849" cy="628651"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ゆっくり前進</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>584994</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>107156</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="正方形/長方形 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8181182" y="4605337"/>
+          <a:ext cx="1593849" cy="628651"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ファンの稼働</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>584994</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>128586</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>107156</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="正方形/長方形 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8181182" y="3295649"/>
+          <a:ext cx="1593849" cy="633413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>回収機構の降下</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>686594</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>794</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>128586</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直線矢印コネクタ 44"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="44" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8973344" y="2676525"/>
+          <a:ext cx="4763" cy="619124"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>686594</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>116680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>794</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>69054</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直線矢印コネクタ 45"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8973344" y="3950493"/>
+          <a:ext cx="4763" cy="619124"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>686594</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>794</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直線矢印コネクタ 46"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8973344" y="5319713"/>
+          <a:ext cx="4763" cy="619124"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>396874</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>14289</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>358775</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="ひし形 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7993062" y="7348539"/>
+          <a:ext cx="2033588" cy="973930"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>カラーセンサが反応</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>95252</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>358775</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>1191</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="カギ線コネクタ 10"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="48" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8977314" y="5595940"/>
+          <a:ext cx="1049336" cy="2239564"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -21785"/>
+            <a:gd name="adj2" fmla="val 100213"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>794</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>794</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="直線矢印コネクタ 48"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="42" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8978107" y="6596063"/>
+          <a:ext cx="0" cy="676274"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>584994</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>61914</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>107156</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>23815</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="正方形/長方形 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8181182" y="9063039"/>
+          <a:ext cx="1593849" cy="628651"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>回収機構の上昇</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>794</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>23815</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>794</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>33339</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="直線矢印コネクタ 50"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="50" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8978107" y="9691690"/>
+          <a:ext cx="0" cy="676274"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>794</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>11908</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>794</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>21432</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直線矢印コネクタ 51"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8978107" y="8346283"/>
+          <a:ext cx="0" cy="676274"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>584994</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>50008</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>107156</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>11909</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="正方形/長方形 54"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8181182" y="10384633"/>
+          <a:ext cx="1593849" cy="628651"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ファンの停止</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>794</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>11909</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>794</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>21433</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="直線矢印コネクタ 55"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="55" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8978107" y="11013284"/>
+          <a:ext cx="0" cy="676274"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>584994</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>50008</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>107156</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>11909</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="正方形/長方形 56"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8181182" y="11718133"/>
+          <a:ext cx="1593849" cy="628651"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>回収機構を</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>デフォルトポジションへ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>794</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>11909</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>794</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>21433</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="直線矢印コネクタ 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="57" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8978107" y="12346784"/>
+          <a:ext cx="0" cy="676274"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>32544</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>500969</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>58397</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="角丸四角形 58"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8477250" y="13034169"/>
+          <a:ext cx="1001032" cy="525916"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>終了</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9266,53 +10393,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>131764</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>131764</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="133" name="直線矢印コネクタ 132"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="38231764" y="0"/>
-          <a:ext cx="0" cy="707571"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -11358,8 +12438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q84" sqref="Q84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11374,7 +12454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="I46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="AH16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -11429,7 +12509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>

--- a/doc/知能ロボコンフロー.xlsx
+++ b/doc/知能ロボコンフロー.xlsx
@@ -3888,14 +3888,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>121443</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>184943</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>-1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>608805</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>672305</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -3906,8 +3906,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8408193" y="2166937"/>
-          <a:ext cx="1177925" cy="509588"/>
+          <a:off x="10662443" y="2063749"/>
+          <a:ext cx="1185862" cy="485776"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3968,14 +3968,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>584994</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>648494</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>107156</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>170656</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -3986,8 +3986,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8181182" y="5967412"/>
-          <a:ext cx="1593849" cy="628651"/>
+          <a:off x="10427494" y="5689599"/>
+          <a:ext cx="1617662" cy="596901"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4039,20 +4039,71 @@
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>run.speed</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> = 0.5(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>未調整</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>run.straight(1)</a:t>
+          </a:r>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>584994</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>648494</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>107156</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>170656</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
@@ -4063,8 +4114,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8181182" y="4605337"/>
-          <a:ext cx="1593849" cy="628651"/>
+          <a:off x="10427494" y="4391024"/>
+          <a:ext cx="1617662" cy="596901"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4110,6 +4161,27 @@
             </a:rPr>
             <a:t>ファンの稼働</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  Fun(FUN_RUN)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4117,14 +4189,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>584994</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>648494</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>128586</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>107156</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>170656</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
@@ -4135,8 +4207,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8181182" y="3295649"/>
-          <a:ext cx="1593849" cy="633413"/>
+          <a:off x="10427494" y="3144836"/>
+          <a:ext cx="1617662" cy="601663"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4182,6 +4254,27 @@
             </a:rPr>
             <a:t>回収機構の降下</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>servo.move(deg)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4189,14 +4282,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>686594</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>51594</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>794</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>64294</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>128586</xdr:rowOff>
     </xdr:to>
@@ -4209,8 +4302,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8973344" y="2676525"/>
-          <a:ext cx="4763" cy="619124"/>
+          <a:off x="11227594" y="2549525"/>
+          <a:ext cx="12700" cy="595311"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4238,14 +4331,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>686594</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>51594</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>116680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>794</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>64294</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>69054</xdr:rowOff>
     </xdr:to>
@@ -4256,8 +4349,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8973344" y="3950493"/>
-          <a:ext cx="4763" cy="619124"/>
+          <a:off x="11227594" y="3767930"/>
+          <a:ext cx="12700" cy="587374"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4285,14 +4378,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>686594</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>51594</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>794</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>64294</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
@@ -4303,8 +4396,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8973344" y="5319713"/>
-          <a:ext cx="4763" cy="619124"/>
+          <a:off x="11227594" y="5073650"/>
+          <a:ext cx="12700" cy="587374"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4332,16 +4425,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>396874</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>14289</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>358775</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>265905</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>157164</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>611187</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>154781</xdr:rowOff>
+      <xdr:rowOff>130969</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4350,8 +4443,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7993062" y="7348539"/>
-          <a:ext cx="2033588" cy="973930"/>
+          <a:off x="8647905" y="6983414"/>
+          <a:ext cx="5234782" cy="926305"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -4397,6 +4490,27 @@
             </a:rPr>
             <a:t>カラーセンサが反応</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>GetBallColor()!=BALL_COLOR_DEFAULT</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4404,16 +4518,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>95252</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>358775</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>1191</xdr:rowOff>
+      <xdr:rowOff>107156</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>611187</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>144067</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4424,13 +4538,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8977314" y="5595940"/>
-          <a:ext cx="1049336" cy="2239564"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector4">
+          <a:off x="11096625" y="5607844"/>
+          <a:ext cx="2635250" cy="2203848"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -21785"/>
-            <a:gd name="adj2" fmla="val 100213"/>
+            <a:gd name="adj1" fmla="val -8675"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -4456,14 +4569,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>794</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>64294</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>794</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>64294</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
@@ -4476,8 +4589,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8978107" y="6596063"/>
-          <a:ext cx="0" cy="676274"/>
+          <a:off x="11240294" y="6286500"/>
+          <a:ext cx="0" cy="644524"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4505,14 +4618,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>584994</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>648494</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>61914</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>107156</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>170656</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>23815</xdr:rowOff>
     </xdr:to>
@@ -4523,8 +4636,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8181182" y="9063039"/>
-          <a:ext cx="1593849" cy="628651"/>
+          <a:off x="10427494" y="8634414"/>
+          <a:ext cx="1617662" cy="596901"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4576,20 +4689,31 @@
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>servo.move()</a:t>
+          </a:r>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>794</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>64294</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>23815</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>794</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>64294</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>33339</xdr:rowOff>
     </xdr:to>
@@ -4602,8 +4726,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8978107" y="9691690"/>
-          <a:ext cx="0" cy="676274"/>
+          <a:off x="11240294" y="9231315"/>
+          <a:ext cx="0" cy="644524"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4631,14 +4755,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>794</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>64294</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>11908</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>794</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>64294</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>21432</xdr:rowOff>
     </xdr:to>
@@ -4649,8 +4773,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8978107" y="8346283"/>
-          <a:ext cx="0" cy="676274"/>
+          <a:off x="11240294" y="7949408"/>
+          <a:ext cx="0" cy="644524"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4678,14 +4802,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>584994</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>648494</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>50008</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>107156</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>170656</xdr:colOff>
       <xdr:row>66</xdr:row>
       <xdr:rowOff>11909</xdr:rowOff>
     </xdr:to>
@@ -4696,8 +4820,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8181182" y="10384633"/>
-          <a:ext cx="1593849" cy="628651"/>
+          <a:off x="10427494" y="9892508"/>
+          <a:ext cx="1617662" cy="596901"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4749,20 +4873,31 @@
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Fun(FUN_STOP)</a:t>
+          </a:r>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>794</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>64294</xdr:colOff>
       <xdr:row>66</xdr:row>
       <xdr:rowOff>11909</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>794</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>64294</xdr:colOff>
       <xdr:row>70</xdr:row>
       <xdr:rowOff>21433</xdr:rowOff>
     </xdr:to>
@@ -4775,8 +4910,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8978107" y="11013284"/>
-          <a:ext cx="0" cy="676274"/>
+          <a:off x="11240294" y="10489409"/>
+          <a:ext cx="0" cy="644524"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4804,14 +4939,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>584994</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>648494</xdr:colOff>
       <xdr:row>70</xdr:row>
       <xdr:rowOff>50008</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>107156</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>170656</xdr:colOff>
       <xdr:row>74</xdr:row>
       <xdr:rowOff>11909</xdr:rowOff>
     </xdr:to>
@@ -4822,8 +4957,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8181182" y="11718133"/>
-          <a:ext cx="1593849" cy="628651"/>
+          <a:off x="10427494" y="11162508"/>
+          <a:ext cx="1617662" cy="596901"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4891,20 +5026,31 @@
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>servo.move()</a:t>
+          </a:r>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>794</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>64294</xdr:colOff>
       <xdr:row>74</xdr:row>
       <xdr:rowOff>11909</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>794</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>64294</xdr:colOff>
       <xdr:row>78</xdr:row>
       <xdr:rowOff>21433</xdr:rowOff>
     </xdr:to>
@@ -4917,8 +5063,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8978107" y="12346784"/>
-          <a:ext cx="0" cy="676274"/>
+          <a:off x="11240294" y="11759409"/>
+          <a:ext cx="0" cy="644524"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4946,14 +5092,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
       <xdr:row>78</xdr:row>
       <xdr:rowOff>32544</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>500969</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>564469</xdr:colOff>
       <xdr:row>81</xdr:row>
       <xdr:rowOff>58397</xdr:rowOff>
     </xdr:to>
@@ -4964,8 +5110,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8477250" y="13034169"/>
-          <a:ext cx="1001032" cy="525916"/>
+          <a:off x="10731500" y="12415044"/>
+          <a:ext cx="1008969" cy="502103"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -12438,8 +12584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q84" sqref="Q84"/>
+    <sheetView tabSelected="1" topLeftCell="K10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12509,7 +12655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>

--- a/doc/知能ロボコンフロー.xlsx
+++ b/doc/知能ロボコンフロー.xlsx
@@ -18,6 +18,7 @@
     <sheet name="map" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -4268,7 +4269,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>servo.move(deg)</a:t>
+            <a:t>servo.move(90)</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
             <a:solidFill>
@@ -4697,7 +4698,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>servo.move()</a:t>
+            <a:t>servo.move(-30)</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5034,7 +5035,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>servo.move()</a:t>
+            <a:t>servo.move(5)</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -12584,8 +12585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12600,7 +12601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="AH16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>

--- a/doc/知能ロボコンフロー.xlsx
+++ b/doc/知能ロボコンフロー.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="9675" windowHeight="5130" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="9675" windowHeight="5130"/>
   </bookViews>
   <sheets>
     <sheet name="plan" sheetId="1" r:id="rId1"/>
@@ -2649,7 +2649,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>y+=50</a:t>
+            <a:t>data.y+=50</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -12551,7 +12551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F24"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -12585,8 +12585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+    <sheetView topLeftCell="M1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="U76" sqref="U76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
